--- a/Renovation/Renovation.xlsx
+++ b/Renovation/Renovation.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2019-11-10 604 Unit\Renovation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeRenovation\HomeRenovation\Renovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CB1402-2C6C-475A-90C7-F626A855F586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E551D1C4-0A4A-48C7-8AEB-7F53D58E973D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Application" sheetId="2" r:id="rId2"/>
     <sheet name="Quota" sheetId="3" r:id="rId3"/>
     <sheet name="Tile" sheetId="4" r:id="rId4"/>
+    <sheet name="Contact" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
   <si>
     <t>Area</t>
   </si>
@@ -188,13 +189,6 @@
     <t>Mounted Cabinet</t>
   </si>
   <si>
-    <t>https://www.homedepot.ca/product/maax-halo-60-inch-frameless-glass-sliding-door-for-tubs/1000758670?rec=true</t>
-  </si>
-  <si>
-    <t>MAAX Halo 60-inch Frameless Glass Sliding Door for Tubs
-Home Depot</t>
-  </si>
-  <si>
     <t>MAAX Duel 59 inch x 55 1/2 inch Frameless Sliding Tub Door in Brushed Nickel
 Home Depot</t>
   </si>
@@ -202,9 +196,6 @@
     <t>https://www.homedepot.ca/product/maax-duel-59-inch-x-55-1-2-inch-frameless-sliding-tub-door-in-brushed-nickel/1001094657?rec=true</t>
   </si>
   <si>
-    <t>Mirolin Sydney 5-ft.. Rectangular Left-Hand Alcove Acrylic Non-Whirpool Bathtub in White</t>
-  </si>
-  <si>
     <t>https://www.homedepot.ca/product/mirolin-sydney-5-ft-rectangular-left-hand-alcove-acrylic-non-whirpool-bathtub-in-white/1000479100</t>
   </si>
   <si>
@@ -218,17 +209,9 @@
     <t>https://www.homedepot.ca/product/american-imaginations-20-3-4-inch-w-x-14-7-20-inch-d-rectangular-undermount-sink-in-white/1000733942?rec=true</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/Better-Homes-and-Gardens-Harborough-Bathroom-Wall-Cabinet-White/133069875422?_trkparms=aid%3D555021%26algo%3DPL.SIMRVI%26ao%3D1%26asc%3D20190711100440%26meid%3Ddd2ee3f1c0ac4405adc92e1441bcc10f%26pid%3D100752%26rk%3D1%26rkt%3D9%26mehot%3Dco%26sd%3D123966877514%26itm%3D133069875422%26pmt%3D1%26noa%3D0%26pg%3D2047675&amp;_trksid=p2047675.c100752.m1982</t>
-  </si>
-  <si>
     <t>Bath Wall Cabinet</t>
   </si>
   <si>
-    <t>Better Homes and Gardens, Harborough Bathroom Wall Cabinet, White
-(22 in. W x 24 in. H x 6.75 in. D)
-ebay.com</t>
-  </si>
-  <si>
     <t>Toilet</t>
   </si>
   <si>
@@ -281,6 +264,130 @@
   </si>
   <si>
     <t>浴缸墙面瓷砖</t>
+  </si>
+  <si>
+    <t>地址： 12180 VICKERS WAY, RICHMOND</t>
+  </si>
+  <si>
+    <t>瓷砖公司 ： Future Tile</t>
+  </si>
+  <si>
+    <t>Cell: (604)808-2251</t>
+  </si>
+  <si>
+    <t>Email:  futuretile2251@gmail.com</t>
+  </si>
+  <si>
+    <t>Contact: Kelvin</t>
+  </si>
+  <si>
+    <t>Tel:  (604)238-9380</t>
+  </si>
+  <si>
+    <t>瓷砖地板公司： DT Flooring  (张师傅推荐）</t>
+  </si>
+  <si>
+    <t>地址： 3455B Gardner Ct, Burnaby</t>
+  </si>
+  <si>
+    <t>Tel:  (604) 438-3898</t>
+  </si>
+  <si>
+    <t>Contact:  Judy Chin</t>
+  </si>
+  <si>
+    <t>卫浴公司： Skyland Building Supplies Ltd (张师傅推荐）</t>
+  </si>
+  <si>
+    <t>地址： 4415 Dawson Street, Burnaby</t>
+  </si>
+  <si>
+    <t>Tel:  (604) 299-8891</t>
+  </si>
+  <si>
+    <t>Contact:  Emma Yuan</t>
+  </si>
+  <si>
+    <t>Email:  info@skylandbathware.ca</t>
+  </si>
+  <si>
+    <t>www.burnabytile.com</t>
+  </si>
+  <si>
+    <t>好生活橱柜</t>
+  </si>
+  <si>
+    <t>地址： 1220 SE Marine Dr. Vancouver</t>
+  </si>
+  <si>
+    <t>Contact:  Sandy</t>
+  </si>
+  <si>
+    <t>Tel:  （604）339-8922</t>
+  </si>
+  <si>
+    <t>Email:  GoodLife1220@gmail.com</t>
+  </si>
+  <si>
+    <t>http://goodlifecabinets.com/</t>
+  </si>
+  <si>
+    <t>DVK - DiscountVancouverKitchen.co</t>
+  </si>
+  <si>
+    <t>地址： 3430 Brighton Ave. Burnaby</t>
+  </si>
+  <si>
+    <t>Cell: 778-251-3032</t>
+  </si>
+  <si>
+    <t>Contact:  Maggie , Melody</t>
+  </si>
+  <si>
+    <t>www.DiscountVancouverKitchen.com</t>
+  </si>
+  <si>
+    <t>Email: DVKsales@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tel: 1-604-559-8116</t>
+  </si>
+  <si>
+    <t>#209-3430 Brighton Avenue, Burnaby</t>
+  </si>
+  <si>
+    <t>地址： #101 - 11500 Bridge Port Rd. Richmond</t>
+  </si>
+  <si>
+    <t>Contact:  Tony Zhou</t>
+  </si>
+  <si>
+    <t>Cell: 604-233 9297</t>
+  </si>
+  <si>
+    <t>Email: tony@vancouvercabinets.com</t>
+  </si>
+  <si>
+    <t>橱柜：Vancouver Cabinets Richmond Store</t>
+  </si>
+  <si>
+    <t>https://www.ikea.com/ca/en/p/godmorgon-wall-cabinet-with-1-door-high-gloss-white-60147513/White/133069875422?_trkparms=aid%3D555021%26algo%3DPL.SIMRVI%26ao%3D1%26asc%3D20190711100440%26meid%3Ddd2ee3f1c0ac4405adc92e1441bcc10f%26pid%3D100752%26rk%3D1%26rkt%3D9%26mehot%3Dco%26sd%3D123966877514%26itm%3D133069875422%26pmt%3D1%26noa%3D0%26pg%3D2047675&amp;_trksid=p2047675.c100752.m1982</t>
+  </si>
+  <si>
+    <t>GODMORGON
+Wall cabinet with 1 door, high gloss white, 15 3/4x5 1/2x37 3/4 " (40x14x96 cm)
+Ikea</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.ca/product/american-imaginations-19-inch-w-x-14-inch-d-rectangular-undermount-sink-in-white-with-glaze-finish-in-chrome/1000831604?rec=true</t>
+  </si>
+  <si>
+    <t>American Imaginations 19-inch W x 14-inch D Rectangular Undermount Sink in White with Glaze Finish in Chrome
+Home Depot</t>
+  </si>
+  <si>
+    <t>Mirolin Sydney 5-ft.. Rectangular Left-Hand Alcove Acrylic Non-Whirpool Bathtub in White
+Home Depot</t>
   </si>
 </sst>
 </file>
@@ -440,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -509,9 +616,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -520,49 +624,56 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,13 +698,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2442883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -648,13 +759,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>26332</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>62190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2420469</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2456327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -709,13 +820,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2409265</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2375647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -770,13 +881,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>336175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2224369</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2061882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -831,13 +942,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>67233</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2308412</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2303500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -892,13 +1003,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2364441</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2285999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -953,13 +1064,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2364440</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2308412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1014,13 +1125,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1062,13 +1173,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1110,13 +1221,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1158,13 +1269,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1725706</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1979070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1391,13 +1502,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>56031</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2274794</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2293419</xdr:rowOff>
+      <xdr:rowOff>2203772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1435,13 +1546,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2263588</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2263379</xdr:rowOff>
+      <xdr:rowOff>2196145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,13 +1589,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2364440</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2406707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1522,13 +1633,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2378807</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2017059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1566,13 +1677,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2420472</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2420471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1610,13 +1721,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2371826</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1748118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1654,14 +1765,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1783582</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1848971</xdr:rowOff>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1876991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1684,8 +1795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5748617" y="11598087"/>
-          <a:ext cx="1727553" cy="1781737"/>
+          <a:off x="5771029" y="9292877"/>
+          <a:ext cx="1753721" cy="1809757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1698,13 +1809,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>403412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1694842</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1322294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1742,13 +1853,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2411729</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1736911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1785,22 +1896,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2129117</xdr:colOff>
+      <xdr:colOff>2293155</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2334199</xdr:rowOff>
+      <xdr:rowOff>2330825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8893A5-6263-453D-BA23-C5DDB0BC6B7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9DBE77-311C-4446-8FF3-7D3E8251D924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,8 +1927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5748616" y="2588559"/>
-          <a:ext cx="2073089" cy="2289375"/>
+          <a:off x="5771030" y="2566148"/>
+          <a:ext cx="2214713" cy="2308412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,23 +1939,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2229969</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2305934</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2375395</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2449285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A14970-C8A2-43DB-A607-DE64D12D0226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0C8532-03B5-4808-936D-33A0A3042616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,8 +1971,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8180295" y="2667000"/>
-          <a:ext cx="2173939" cy="2182669"/>
+          <a:off x="5769431" y="11253107"/>
+          <a:ext cx="2320964" cy="2381249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>353786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2392394</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1959429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC39536F-30C0-47F7-98EF-E1D62CA4AA8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191502" y="11538857"/>
+          <a:ext cx="2351571" cy="1605643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,10 +2294,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2326,7 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2215,7 +2370,7 @@
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="10">
@@ -2225,171 +2380,157 @@
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="10">
-        <v>58.63</v>
+        <v>129</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="10">
-        <v>649</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="10">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="10">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>170</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="10">
-        <v>170</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="23"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>419.99</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9">
-        <v>419.99</v>
+        <v>289.99</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9">
-        <v>289.99</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9">
         <v>299</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A5" r:id="rId4" location="spc" display="spc" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{BB4E7E62-00B2-4BB7-9519-3E9762763343}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://www.ebay.com/itm/Better-Homes-and-Gardens-Harborough-Bathroom-Wall-Cabinet-White/133069875422?_trkparms=aid%3D555021%26algo%3DPL.SIMRVI%26ao%3D1%26asc%3D20190711100440%26meid%3Ddd2ee3f1c0ac4405adc92e1441bcc10f%26pid%3D100752%26rk%3D1%26rkt%3D9%26mehot%3Dco%26sd%3D123966877514%26itm%3D133069875422%26pmt%3D1%26noa%3D0%26pg%3D2047675&amp;_trksid=p2047675.c100752.m1982" xr:uid="{BE26EF51-96D1-47B0-8560-7154471066E9}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{BB4E7E62-00B2-4BB7-9519-3E9762763343}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://www.ikea.com/ca/en/p/godmorgon-wall-cabinet-with-1-door-high-gloss-white-60147513/White/133069875422?_trkparms=aid%3D555021%26algo%3DPL.SIMRVI%26ao%3D1%26asc%3D20190711100440%26meid%3Ddd2ee3f1c0ac4405adc92e1441bcc10f%26pid%3D100752%26rk%3D1%26rkt%3D9%26mehot%3Dco%26sd%3D123966877514%26itm%3D133069875422%26pmt%3D1%26noa%3D0%26pg%3D2047675&amp;_trksid=p2047675.c100752.m1982" xr:uid="{BE26EF51-96D1-47B0-8560-7154471066E9}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{9515F0B9-D82D-4461-8B36-D73E33417DE8}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2414,12 +2555,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2436,10 +2577,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2450,8 +2591,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
@@ -2460,76 +2601,76 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -2544,34 +2685,34 @@
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -2589,16 +2730,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D9:D12"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2610,7 +2751,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,12 +2761,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2642,10 +2783,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2654,132 +2795,132 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -2814,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E1B793-21FD-4B6D-859B-4A863AE8C61C}">
-  <dimension ref="A2:E24"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,373 +2970,799 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="B4" s="27">
         <v>52</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="27">
         <v>60</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="27">
         <f>B4*C4</f>
         <v>3120</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="29">
         <f>D4/144</f>
         <v>21.666666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="39">
+      <c r="A5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="27">
         <v>48</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="27">
         <v>88</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="27">
         <f>B5*C5</f>
         <v>4224</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="29">
         <f>D5/144</f>
         <v>29.333333333333332</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="27">
         <v>34</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="27">
         <v>32</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="27">
         <f>B6*C6</f>
         <v>1088</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="29">
         <f>D6/144</f>
         <v>7.5555555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="27">
         <v>100</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="27">
         <v>136</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="27">
         <f>B7*C7</f>
         <v>13600</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="29">
         <f>D7/144</f>
         <v>94.444444444444443</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="43">
+      <c r="E8" s="30">
         <f>SUM(E4:E7)</f>
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>66</v>
+      <c r="A10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27">
         <v>60</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="27">
         <v>80</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="27">
         <f>B11*C11</f>
         <v>4800</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="30">
         <f>D11/144</f>
         <v>33.333333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39">
-        <v>36</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27">
+        <v>40</v>
+      </c>
+      <c r="C12" s="27">
         <v>80</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="27">
         <f t="shared" ref="D12:D13" si="0">B12*C12</f>
-        <v>2880</v>
-      </c>
-      <c r="E12" s="43">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="30">
         <f t="shared" ref="E12:E13" si="1">D12/144</f>
-        <v>20</v>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39">
-        <v>36</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27">
+        <v>40</v>
+      </c>
+      <c r="C13" s="27">
         <v>80</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>2880</v>
-      </c>
-      <c r="E13" s="43">
+        <v>3200</v>
+      </c>
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="43">
+      <c r="E14" s="30">
         <f>SUM(E11:E13)</f>
-        <v>73.333333333333343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="27">
+        <v>100</v>
+      </c>
+      <c r="C18" s="27">
+        <v>125</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:D23" si="2">B18*C18</f>
+        <v>12500</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" ref="E18:E23" si="3">D18/144</f>
+        <v>86.805555555555557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="27">
+        <v>188</v>
+      </c>
+      <c r="C19" s="27">
+        <v>172</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="2"/>
+        <v>32336</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="3"/>
+        <v>224.55555555555554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="27">
+        <v>216</v>
+      </c>
+      <c r="C20" s="27">
+        <v>132</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="2"/>
+        <v>28512</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="27">
+        <v>164</v>
+      </c>
+      <c r="C21" s="27">
+        <v>134</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="2"/>
+        <v>21976</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="3"/>
+        <v>152.61111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="27">
+        <v>100</v>
+      </c>
+      <c r="C22" s="27">
         <v>76</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="39">
-        <v>100</v>
-      </c>
-      <c r="C18" s="39">
-        <v>125</v>
-      </c>
-      <c r="D18" s="39">
-        <f>B18*C18</f>
-        <v>12500</v>
-      </c>
-      <c r="E18" s="41">
-        <f>D18/144</f>
-        <v>86.805555555555557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="39">
-        <v>188</v>
-      </c>
-      <c r="C19" s="39">
-        <v>172</v>
-      </c>
-      <c r="D19" s="39">
-        <f>B19*C19</f>
-        <v>32336</v>
-      </c>
-      <c r="E19" s="41">
-        <f>D19/144</f>
-        <v>224.55555555555554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="39">
-        <v>216</v>
-      </c>
-      <c r="C20" s="39">
-        <v>132</v>
-      </c>
-      <c r="D20" s="39">
-        <f>B20*C20</f>
-        <v>28512</v>
-      </c>
-      <c r="E20" s="41">
-        <f>D20/144</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="39">
-        <v>164</v>
-      </c>
-      <c r="C21" s="39">
-        <v>134</v>
-      </c>
-      <c r="D21" s="39">
-        <f>B21*C21</f>
-        <v>21976</v>
-      </c>
-      <c r="E21" s="41">
-        <f>D21/144</f>
-        <v>152.61111111111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="39">
-        <v>100</v>
-      </c>
-      <c r="C22" s="39">
-        <v>76</v>
-      </c>
-      <c r="D22" s="39">
-        <f>B22*C22</f>
+      <c r="D22" s="27">
+        <f t="shared" si="2"/>
         <v>7600</v>
       </c>
-      <c r="E22" s="41">
-        <f>D22/144</f>
+      <c r="E22" s="29">
+        <f t="shared" si="3"/>
         <v>52.777777777777779</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="39">
+      <c r="A23" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="27">
         <v>178</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="27">
         <v>36</v>
       </c>
-      <c r="D23" s="39">
-        <f>B23*C23</f>
+      <c r="D23" s="27">
+        <f t="shared" si="2"/>
         <v>6408</v>
       </c>
-      <c r="E23" s="41">
-        <f>D23/144</f>
+      <c r="E23" s="29">
+        <f t="shared" si="3"/>
         <v>44.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="43">
+      <c r="E24" s="30">
         <f>SUM(E18:E23)</f>
         <v>759.25</v>
       </c>
     </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+    </row>
+    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D07664-74A2-45B1-95F7-F780D90E715E}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="45"/>
+      <c r="C30" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{B41BD5F0-644E-4EDD-BEFF-E9A23AFFBCFC}"/>
+    <hyperlink ref="A18" r:id="rId2" xr:uid="{F890D23C-A8C7-4157-8FDA-752996AEC476}"/>
+    <hyperlink ref="A24" r:id="rId3" xr:uid="{5F1B0AF9-49B3-4080-BFDD-9A4ACACEF2AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Renovation/Renovation.xlsx
+++ b/Renovation/Renovation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeRenovation\HomeRenovation\Renovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E551D1C4-0A4A-48C7-8AEB-7F53D58E973D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34570B86-9AED-4DAC-B099-816D1944F3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>Area</t>
   </si>
@@ -388,6 +388,33 @@
   <si>
     <t>Mirolin Sydney 5-ft.. Rectangular Left-Hand Alcove Acrylic Non-Whirpool Bathtub in White
 Home Depot</t>
+  </si>
+  <si>
+    <t>https://skylandbathware.ca/collections/toilets/products/toilet-bl-137</t>
+  </si>
+  <si>
+    <t>Dual Flush One-piece Toilet SK137
+Skyland Building Supplies Ltd.</t>
+  </si>
+  <si>
+    <t>https://skylandbathware.ca/collections/bathroom-sink-parts/products/bathroom-cae9515t05065bn</t>
+  </si>
+  <si>
+    <t>Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>Paper holder
+SKU: 9515T05065C
+Vendor: CAE</t>
+  </si>
+  <si>
+    <t>地板</t>
+  </si>
+  <si>
+    <t>瓷砖</t>
+  </si>
+  <si>
+    <t>橱柜</t>
   </si>
 </sst>
 </file>
@@ -547,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -572,9 +599,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -631,6 +655,31 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -643,37 +692,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,13 +734,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2442883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -759,13 +795,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>26332</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>62190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2420469</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2456327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -820,13 +856,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2409265</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2375647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -881,13 +917,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>336175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2224369</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2061882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -942,13 +978,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>67233</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2308412</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2303500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1003,13 +1039,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2364441</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2285999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1064,13 +1100,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2364440</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2308412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1125,13 +1161,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1173,13 +1209,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1221,13 +1257,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1269,13 +1305,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1725706</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1979070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2025,6 +2061,172 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2413461</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2449286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFBA085-53E5-4BD2-A8AD-B7EA4FBF52A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5755821" y="13824859"/>
+          <a:ext cx="2372640" cy="2299606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2217963</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2443291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F931D51-F1E7-4BC9-AA1F-5F9D9905D38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="13743216"/>
+          <a:ext cx="1986642" cy="2375254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2323318</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2333625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBABE5A9-7432-4089-BB0A-8B5DA6389125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5786437" y="16240125"/>
+          <a:ext cx="2251881" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2294,18 +2496,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="46" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="37" style="3" customWidth="1"/>
@@ -2313,23 +2515,23 @@
     <col min="9" max="9" width="33.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="4"/>
@@ -2337,204 +2539,276 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="48"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>139.99</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>129</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9"/>
+      <c r="F9"/>
+      <c r="J9" s="10">
         <v>170</v>
       </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9"/>
+      <c r="J10" s="10">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="9">
+        <v>299</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="10">
+        <v>36</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="9"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="D14" s="48"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2">
         <v>419.99</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D16" s="9">
         <v>289.99</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D17" s="9"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2">
         <v>299</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="10">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="46">
+        <f xml:space="preserve"> 3 * 800</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="46">
+        <f xml:space="preserve"> 4 * 268</f>
+        <v>1072</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A5" r:id="rId4" location="spc" display="spc" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A9" r:id="rId7" xr:uid="{BB4E7E62-00B2-4BB7-9519-3E9762763343}"/>
     <hyperlink ref="A6" r:id="rId8" display="https://www.ikea.com/ca/en/p/godmorgon-wall-cabinet-with-1-door-high-gloss-white-60147513/White/133069875422?_trkparms=aid%3D555021%26algo%3DPL.SIMRVI%26ao%3D1%26asc%3D20190711100440%26meid%3Ddd2ee3f1c0ac4405adc92e1441bcc10f%26pid%3D100752%26rk%3D1%26rkt%3D9%26mehot%3Dco%26sd%3D123966877514%26itm%3D133069875422%26pmt%3D1%26noa%3D0%26pg%3D2047675&amp;_trksid=p2047675.c100752.m1982" xr:uid="{BE26EF51-96D1-47B0-8560-7154471066E9}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{9515F0B9-D82D-4461-8B36-D73E33417DE8}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{E4AB4DEC-ECBC-4577-93B8-39F984B5A533}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{7D1CA88C-852F-4C42-A749-71975157338F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2548,198 +2822,198 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2761,181 +3035,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2972,361 +3246,361 @@
   <sheetData>
     <row r="1" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>52</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>60</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <f>B4*C4</f>
         <v>3120</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <f>D4/144</f>
         <v>21.666666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>48</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>88</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <f>B5*C5</f>
         <v>4224</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f>D5/144</f>
         <v>29.333333333333332</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>34</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>32</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <f>B6*C6</f>
         <v>1088</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <f>D6/144</f>
         <v>7.5555555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>100</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>136</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <f>B7*C7</f>
         <v>13600</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f>D7/144</f>
         <v>94.444444444444443</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="30">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="29">
         <f>SUM(E4:E7)</f>
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26">
         <v>60</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>80</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <f>B11*C11</f>
         <v>4800</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <f>D11/144</f>
         <v>33.333333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26">
         <v>40</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>80</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <f t="shared" ref="D12:D13" si="0">B12*C12</f>
         <v>3200</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f t="shared" ref="E12:E13" si="1">D12/144</f>
         <v>22.222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26">
         <v>40</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>80</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <f t="shared" si="1"/>
         <v>22.222222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="30">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="29">
         <f>SUM(E11:E13)</f>
         <v>77.777777777777771</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>100</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>125</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <f t="shared" ref="D18:D23" si="2">B18*C18</f>
         <v>12500</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <f t="shared" ref="E18:E23" si="3">D18/144</f>
         <v>86.805555555555557</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>188</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>172</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <f t="shared" si="2"/>
         <v>32336</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <f t="shared" si="3"/>
         <v>224.55555555555554</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>216</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>132</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <f t="shared" si="2"/>
         <v>28512</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>164</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>134</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <f t="shared" si="2"/>
         <v>21976</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <f t="shared" si="3"/>
         <v>152.61111111111111</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>100</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>76</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <f t="shared" si="2"/>
         <v>7600</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <f t="shared" si="3"/>
         <v>52.777777777777779</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>178</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>36</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <f t="shared" si="2"/>
         <v>6408</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <f t="shared" si="3"/>
         <v>44.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="30">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="29">
         <f>SUM(E18:E23)</f>
         <v>759.25</v>
       </c>
@@ -3346,15 +3620,15 @@
       <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -3375,15 +3649,15 @@
       <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
@@ -3400,20 +3674,20 @@
       <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="31"/>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
     </row>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
@@ -3423,28 +3697,20 @@
       <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="31"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A31:E31"/>
@@ -3454,6 +3720,14 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3494,10 +3768,10 @@
       <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="43" t="s">
         <v>76</v>
       </c>
@@ -3505,10 +3779,10 @@
       <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="43" t="s">
         <v>77</v>
       </c>
@@ -3535,10 +3809,10 @@
       <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -3546,8 +3820,8 @@
       <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
@@ -3568,10 +3842,10 @@
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="43" t="s">
         <v>86</v>
       </c>
@@ -3579,7 +3853,7 @@
       <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -3608,10 +3882,10 @@
       <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="43" t="s">
         <v>91</v>
       </c>
@@ -3619,7 +3893,7 @@
       <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -3647,10 +3921,10 @@
       <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="43" t="s">
         <v>98</v>
       </c>
@@ -3658,16 +3932,16 @@
       <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -3704,10 +3978,10 @@
       <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="43" t="s">
         <v>104</v>
       </c>
@@ -3715,7 +3989,7 @@
       <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="31"/>
       <c r="C30" s="43" t="s">
         <v>106</v>
       </c>
@@ -3731,6 +4005,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A25:E25"/>
@@ -3738,24 +4030,6 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" xr:uid="{B41BD5F0-644E-4EDD-BEFF-E9A23AFFBCFC}"/>
